--- a/04.Source/CapstoneMVC/src/main/resources/template/DSSV_HL_MTT.xlsx
+++ b/04.Source/CapstoneMVC/src/main/resources/template/DSSV_HL_MTT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THIENPHSE61426\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THIENPHSE61426\Desktop\Capstone\04.Source\CapstoneMVC\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="6705"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="DSSV_HL_MTT" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>MSSV</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Môn Tiếp Theo</t>
+  </si>
+  <si>
+    <t>Môn Không Được Học Do Tiên Quyết</t>
   </si>
 </sst>
 </file>
@@ -111,21 +114,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -473,65 +513,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-      <c r="B1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -539,7 +583,7 @@
     <mergeCell ref="C1:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/04.Source/CapstoneMVC/src/main/resources/template/DSSV_HL_MTT.xlsx
+++ b/04.Source/CapstoneMVC/src/main/resources/template/DSSV_HL_MTT.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THIENPHSE61426\Desktop\Capstone\04.Source\CapstoneMVC\src\main\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Projects\Intelliji\CapstoneRoot\04.Source\CapstoneMVC\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>MSSV</t>
   </si>
@@ -41,7 +41,13 @@
     <t>Môn Tiếp Theo</t>
   </si>
   <si>
-    <t>Môn Không Được Học Do Tiên Quyết</t>
+    <t>Môn đang học trong kỳ</t>
+  </si>
+  <si>
+    <t>Danh sách môn chậm tiến độ</t>
+  </si>
+  <si>
+    <t>Danh sách môn học dự kiến tiếp theo</t>
   </si>
 </sst>
 </file>
@@ -114,16 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -131,6 +131,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -194,7 +197,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="New Logo - Update01"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="New Logo - Update01">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -513,69 +522,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="30" style="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/04.Source/CapstoneMVC/src/main/resources/template/DSSV_HL_MTT.xlsx
+++ b/04.Source/CapstoneMVC/src/main/resources/template/DSSV_HL_MTT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>MSSV</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Danh sách môn học dự kiến tiếp theo</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
@@ -522,57 +525,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="4"/>
       <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -580,24 +588,27 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:D5"/>
+    <mergeCell ref="D1:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
